--- a/SUSTITUTOS JUNIOR P/2024/SUSTITUTOS OSEOS MARZO NUEVOS  LOS 2 FORMATOS .xlsx
+++ b/SUSTITUTOS JUNIOR P/2024/SUSTITUTOS OSEOS MARZO NUEVOS  LOS 2 FORMATOS .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SUSTITUTOS JUNIOR P\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC4EEFD-0E9F-4D5B-81A9-A6EBD5050A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2698D6DD-6247-47CF-8858-790E7D934A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61E71C0B-34ED-4D6F-A2CC-1188470A0032}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{61E71C0B-34ED-4D6F-A2CC-1188470A0032}"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRO DE GASTO " sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="73">
   <si>
     <t>PUTTY 2.5.CC</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>14 MARZO JPJ</t>
+  </si>
+  <si>
+    <t>13 ABRIL JPJ</t>
   </si>
 </sst>
 </file>
@@ -560,6 +563,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -620,7 +624,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0896462F-09E3-4729-8C57-3FD12B540C26}">
   <dimension ref="B4:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,19 +972,19 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="2:12" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -1119,19 +1122,19 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
     </row>
     <row r="14" spans="2:12" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
@@ -1164,7 +1167,7 @@
       <c r="K14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="63" t="s">
+      <c r="L14" s="43" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1330,9 +1333,13 @@
       <c r="D23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -1375,15 +1382,15 @@
       <c r="E25" s="3">
         <v>0</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="50"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
@@ -1398,15 +1405,15 @@
       <c r="E26" s="3">
         <v>0</v>
       </c>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="50"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
@@ -1421,15 +1428,15 @@
       <c r="E27" s="3">
         <v>0</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="50"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
@@ -1444,15 +1451,15 @@
       <c r="E28" s="3">
         <v>0</v>
       </c>
-      <c r="F28" s="47" t="s">
+      <c r="F28" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="50"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
@@ -1467,15 +1474,15 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="50"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
@@ -1490,15 +1497,15 @@
       <c r="E30" s="3">
         <v>0</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="50"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
@@ -1513,15 +1520,15 @@
       <c r="E31" s="3">
         <v>0</v>
       </c>
-      <c r="F31" s="47" t="s">
+      <c r="F31" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="50"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
@@ -1536,15 +1543,15 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="47" t="s">
+      <c r="F32" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="50"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
@@ -1559,15 +1566,15 @@
       <c r="E33" s="3">
         <v>0</v>
       </c>
-      <c r="F33" s="47" t="s">
+      <c r="F33" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="50"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
@@ -1582,15 +1589,15 @@
       <c r="E34" s="3">
         <v>0</v>
       </c>
-      <c r="F34" s="47" t="s">
+      <c r="F34" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="50"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
@@ -1598,19 +1605,19 @@
       </c>
     </row>
     <row r="37" spans="2:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
     </row>
     <row r="38" spans="2:12" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
@@ -1658,15 +1665,15 @@
       <c r="E39" s="3">
         <v>0</v>
       </c>
-      <c r="F39" s="47" t="s">
+      <c r="F39" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="50"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
@@ -1769,19 +1776,19 @@
       </c>
     </row>
     <row r="47" spans="2:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
     </row>
     <row r="48" spans="2:12" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
@@ -1829,15 +1836,15 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="47" t="s">
+      <c r="F49" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="50"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
@@ -1921,19 +1928,19 @@
       </c>
     </row>
     <row r="56" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="50"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="51"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="12"/>
@@ -1986,15 +1993,15 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="47" t="s">
+      <c r="F59" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="50"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
@@ -2041,11 +2048,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B47:L47"/>
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="F39:L39"/>
     <mergeCell ref="F49:L49"/>
     <mergeCell ref="F59:L59"/>
     <mergeCell ref="F25:L25"/>
@@ -2059,6 +2061,11 @@
     <mergeCell ref="F33:L33"/>
     <mergeCell ref="F34:L34"/>
     <mergeCell ref="B56:L56"/>
+    <mergeCell ref="B47:L47"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="F39:L39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2093,25 +2100,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="54"/>
     </row>
     <row r="2" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="31"/>
@@ -2352,19 +2359,19 @@
       </c>
     </row>
     <row r="10" spans="2:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
     </row>
     <row r="11" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B11" s="33"/>
@@ -2995,19 +3002,19 @@
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
     </row>
     <row r="36" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B36" s="33"/>
@@ -3267,19 +3274,19 @@
       </c>
     </row>
     <row r="46" spans="2:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
     </row>
     <row r="47" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B47" s="33"/>
@@ -3520,19 +3527,19 @@
       </c>
     </row>
     <row r="56" spans="2:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="50"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="51"/>
     </row>
     <row r="57" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="25"/>
@@ -3756,8 +3763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9A1D82-7317-4C5A-938E-D9AE04BF6F03}">
   <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3794,32 +3801,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="14" t="s">
         <v>57</v>
       </c>
@@ -4212,18 +4219,18 @@
       <c r="AG8" s="5"/>
     </row>
     <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:33" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
@@ -4867,18 +4874,18 @@
       <c r="AG22" s="5"/>
     </row>
     <row r="23" spans="1:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:33" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
@@ -5317,18 +5324,18 @@
       <c r="AG31" s="5"/>
     </row>
     <row r="32" spans="1:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
     </row>
     <row r="33" spans="1:33" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
@@ -5726,18 +5733,18 @@
       <c r="AG39" s="5"/>
     </row>
     <row r="40" spans="1:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
     </row>
     <row r="41" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
